--- a/LF/TAS/Nigeria/ng_lf_tas_3_resultat_fts_202202.xlsx
+++ b/LF/TAS/Nigeria/ng_lf_tas_3_resultat_fts_202202.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="116">
   <si>
     <t>type</t>
   </si>
@@ -268,9 +268,6 @@
     <t>list_name</t>
   </si>
   <si>
-    <t>label::French</t>
-  </si>
-  <si>
     <t>state_list</t>
   </si>
   <si>
@@ -286,15 +283,9 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Oui</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Non</t>
-  </si>
-  <si>
     <t>id_list</t>
   </si>
   <si>
@@ -307,30 +298,18 @@
     <t>Automatic ID generation</t>
   </si>
   <si>
-    <t>Génération automatique</t>
-  </si>
-  <si>
     <t>results_list</t>
   </si>
   <si>
     <t>Positive</t>
   </si>
   <si>
-    <t>Positif</t>
-  </si>
-  <si>
     <t xml:space="preserve">Negative </t>
   </si>
   <si>
-    <t>Négatif</t>
-  </si>
-  <si>
     <t>Invalid</t>
   </si>
   <si>
-    <t>Invalide</t>
-  </si>
-  <si>
     <t>why_invalid</t>
   </si>
   <si>
@@ -340,61 +319,40 @@
     <t>Absence of control line</t>
   </si>
   <si>
-    <t>Absence de ligne témoin/contrôle</t>
-  </si>
-  <si>
     <t>Ligne.temoin.discontinue/partielle</t>
   </si>
   <si>
     <t>Broken/partial control line</t>
   </si>
   <si>
-    <t>Ligne témoin discontinue/partielle</t>
-  </si>
-  <si>
     <t>Difficulte.d’absorption.d’echantillon</t>
   </si>
   <si>
     <t>Difficulty of absorbing sample</t>
   </si>
   <si>
-    <t>Difficulté d’absorption d’échantillon</t>
-  </si>
-  <si>
     <t>Difficulte.de.migration.d’echantillon</t>
   </si>
   <si>
     <t>Difficulty of migrating sample</t>
   </si>
   <si>
-    <t>Difficulté de migration d’échantillon</t>
-  </si>
-  <si>
     <t>Trace.de.sang.persiste.(sang.reste.sur.la.bandelette/a.obscurci.les.lignes)</t>
   </si>
   <si>
     <t>Trace of blood persists</t>
   </si>
   <si>
-    <t>Trace de sang persiste (sang resté sur la bandelette/a obscurci les lignes)</t>
-  </si>
-  <si>
     <t>Insuffisance.du.volume.de.sang.du.a.la.pipette</t>
   </si>
   <si>
     <t>Insufficient blood volume due to pipette</t>
   </si>
   <si>
-    <t>Insuffisance du volume de sang dû à la pipette</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
     <t>Other (pleas explain)</t>
-  </si>
-  <si>
-    <t>Autre (expliquer)</t>
   </si>
   <si>
     <t>form_title</t>
@@ -599,7 +557,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -609,12 +567,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCECFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,103 +881,103 @@
   </borders>
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1040,7 +992,7 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1058,17 +1010,17 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1080,14 +1032,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1471,19 +1419,19 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="23.5037037037037" customWidth="1"/>
     <col min="2" max="2" width="19.8740740740741" customWidth="1"/>
-    <col min="3" max="3" width="42.6222222222222" style="11" customWidth="1"/>
-    <col min="4" max="4" width="41.2518518518519" style="7" customWidth="1"/>
+    <col min="3" max="3" width="42.6222222222222" style="9" customWidth="1"/>
+    <col min="4" max="4" width="41.2518518518519" style="6" customWidth="1"/>
     <col min="5" max="5" width="12.6222222222222" customWidth="1"/>
     <col min="6" max="6" width="16.8740740740741" customWidth="1"/>
-    <col min="7" max="7" width="29.5037037037037" style="7" customWidth="1"/>
-    <col min="8" max="8" width="49.3777777777778" style="12" customWidth="1"/>
+    <col min="7" max="7" width="29.5037037037037" style="6" customWidth="1"/>
+    <col min="8" max="8" width="49.3777777777778" style="10" customWidth="1"/>
     <col min="9" max="9" width="12.6222222222222" customWidth="1"/>
     <col min="10" max="10" width="9.74814814814815" customWidth="1"/>
     <col min="11" max="11" width="35.3777777777778" customWidth="1"/>
@@ -1492,466 +1440,466 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="18" spans="1:13">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" ht="42.75" spans="1:13">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="15"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:13">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="15"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:13">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="15"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:13">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="15"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="28.5" spans="1:13">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23" t="s">
+      <c r="H6" s="14"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="15"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="28.5" spans="1:13">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="23" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="15"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:13">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="23" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="15"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="13"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="28.5" spans="1:13">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="23" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:13">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="18" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="23" t="s">
+      <c r="I10" s="14"/>
+      <c r="J10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:13">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="18" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="23" t="s">
+      <c r="I11" s="14"/>
+      <c r="J11" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:13">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="15" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13" s="3" customFormat="1" ht="57" spans="1:13">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="18" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:13">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="18" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="23" t="s">
+      <c r="I14" s="13"/>
+      <c r="J14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="18" t="s">
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="23" t="s">
+      <c r="I15" s="18"/>
+      <c r="J15" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="18" t="s">
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="23" t="s">
+      <c r="I16" s="18"/>
+      <c r="J16" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="18" t="s">
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="23" t="s">
+      <c r="I17" s="18"/>
+      <c r="J17" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="18" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
     </row>
     <row r="19" ht="56.25" customHeight="1" spans="1:9">
       <c r="A19" s="3" t="s">
@@ -1960,8 +1908,8 @@
       <c r="B19" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="12" t="s">
+      <c r="H19" s="7"/>
+      <c r="I19" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1972,10 +1920,10 @@
       <c r="B20" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="9"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" ht="28.5" spans="1:8">
       <c r="A21" s="3" t="s">
@@ -1984,10 +1932,10 @@
       <c r="B21" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1998,7 +1946,7 @@
       <c r="B22" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2028,23 +1976,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G323"/>
+  <dimension ref="A1:F323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.3777777777778" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="11.7481481481481" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
@@ -2054,2039 +2001,1689 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="B2" t="s">
         <v>84</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="8" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="8" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="C5" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="B8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="C8" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>94</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>94</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>94</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
         <v>101</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C12" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="7" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="8" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C15" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="2:4">
+    </row>
+    <row r="18" spans="2:3">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="2:4">
+    </row>
+    <row r="19" spans="2:3">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="2:4">
+    </row>
+    <row r="20" spans="2:3">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="2:4">
+    </row>
+    <row r="21" spans="2:3">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="2:4">
+    </row>
+    <row r="22" spans="2:3">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="2:4">
+    </row>
+    <row r="23" spans="2:3">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="2:4">
+    </row>
+    <row r="24" spans="2:3">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="2:4">
+    </row>
+    <row r="25" spans="2:3">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="2:4">
+    </row>
+    <row r="26" spans="2:3">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="2:4">
+    </row>
+    <row r="27" spans="2:3">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="9"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="7"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="9"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="7"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="9"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="7"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="9"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="7"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="9"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="7"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="9"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="7"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="9"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="7"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="9"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="7"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="9"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="7"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="9"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="7"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="9"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="7"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="9"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="7"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="9"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="7"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="9"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="7"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="9"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="7"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="9"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="7"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="9"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="7"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="9"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="7"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="9"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="7"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="9"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="7"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="9"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="7"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="9"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="7"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="9"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="7"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="9"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="7"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="9"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="7"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="9"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="7"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="9"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="7"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="9"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="7"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="9"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="7"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="9"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="7"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="9"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="7"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="9"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="7"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="9"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="7"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="9"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="7"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="9"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="7"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="9"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="7"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="9"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="7"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="9"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="7"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="9"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="7"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="9"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="7"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="9"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="7"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="9"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="7"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="9"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="7"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="9"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="7"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="9"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="7"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="9"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="7"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="9"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="7"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="9"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="7"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="9"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="7"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="9"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="7"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="9"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="7"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="9"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="7"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="9"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="7"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="9"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="7"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="9"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="7"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="9"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="7"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="9"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="7"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="9"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="7"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="9"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="7"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="9"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="7"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="9"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="7"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="9"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="7"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="9"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="7"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="9"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="7"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="9"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="7"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="9"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="7"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="9"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="7"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="9"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="7"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="9"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="7"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="9"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="7"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="9"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="7"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="9"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="7"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="9"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="7"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="9"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="7"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="9"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="7"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="9"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="7"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="9"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="7"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="9"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="7"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="9"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="7"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="9"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="7"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="9"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="7"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="9"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="7"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="9"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="7"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="9"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="7"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="9"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="7"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="9"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="7"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="9"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="7"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="9"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="7"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="9"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="7"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="9"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="7"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="9"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="7"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="9"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="7"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="9"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="7"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="9"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="7"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="9"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="7"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="9"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="7"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="9"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="7"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="9"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="7"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="9"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="7"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="9"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="7"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="9"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="7"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="9"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="7"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="9"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="7"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="9"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="7"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="9"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="7"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="9"/>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="7"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="9"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="7"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="9"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="7"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="9"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="7"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="9"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="7"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="9"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="7"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="9"/>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="7"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="9"/>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="7"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="9"/>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="7"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="9"/>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="7"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="9"/>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="7"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="9"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="7"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="9"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="7"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="9"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="7"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="9"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="7"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="9"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="7"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="9"/>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="7"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="9"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="7"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="9"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="7"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="9"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="7"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="9"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="7"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="9"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="7"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="9"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="7"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="9"/>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="7"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="9"/>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="7"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="9"/>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="7"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="9"/>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="7"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="9"/>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="7"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="9"/>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="7"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="9"/>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="7"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="9"/>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="7"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="9"/>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="7"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="9"/>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="7"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="9"/>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="7"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="9"/>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="7"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="9"/>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="7"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="9"/>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="7"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="9"/>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="7"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="9"/>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="7"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="9"/>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="7"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="9"/>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="7"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="9"/>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="7"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="9"/>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="7"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="9"/>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="7"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="9"/>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="7"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="9"/>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="7"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="9"/>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="7"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="9"/>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="7"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="9"/>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="7"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="9"/>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="7"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="9"/>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="7"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="9"/>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="7"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="9"/>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="7"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="9"/>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="7"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="9"/>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="7"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="9"/>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="7"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="9"/>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="7"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
-      <c r="D189" s="3"/>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="9"/>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="7"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="9"/>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="7"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="9"/>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="7"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="9"/>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="7"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
-      <c r="D193" s="3"/>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="9"/>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="7"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
-      <c r="D194" s="3"/>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="9"/>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="7"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="9"/>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="7"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
-      <c r="D196" s="3"/>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="9"/>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="7"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
-      <c r="D197" s="3"/>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="9"/>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="7"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
-      <c r="D198" s="3"/>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="9"/>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="7"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
-      <c r="D199" s="3"/>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="9"/>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="7"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="9"/>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="7"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
-      <c r="D201" s="3"/>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="9"/>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="7"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
-      <c r="D202" s="3"/>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="9"/>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="7"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
-      <c r="D203" s="3"/>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="9"/>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="7"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
-      <c r="D204" s="3"/>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="9"/>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="7"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
-      <c r="D205" s="3"/>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="9"/>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="7"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
-      <c r="D206" s="3"/>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="9"/>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="7"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
-      <c r="D207" s="3"/>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="9"/>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="7"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
-      <c r="D208" s="3"/>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="9"/>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="7"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
-      <c r="D209" s="3"/>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="9"/>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="7"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-    </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="9"/>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="7"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
-      <c r="D211" s="3"/>
-    </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="9"/>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="7"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
-      <c r="D212" s="3"/>
-    </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="9"/>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="7"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
-      <c r="D213" s="3"/>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="9"/>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="7"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
-      <c r="D214" s="3"/>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="9"/>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="7"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
-      <c r="D215" s="3"/>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="9"/>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="7"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
-      <c r="D216" s="3"/>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="9"/>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="7"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
-      <c r="D217" s="3"/>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="9"/>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="7"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
-      <c r="D218" s="3"/>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="9"/>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="7"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
-      <c r="D219" s="3"/>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="9"/>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="7"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
-      <c r="D220" s="3"/>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="9"/>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="7"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
-      <c r="D221" s="3"/>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="9"/>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="7"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="9"/>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="7"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
-      <c r="D223" s="3"/>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="9"/>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="7"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
-      <c r="D224" s="3"/>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="9"/>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="7"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
-      <c r="D225" s="3"/>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="9"/>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="7"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
-      <c r="D226" s="3"/>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="9"/>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="7"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
-      <c r="D227" s="3"/>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="9"/>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="7"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
-      <c r="D228" s="3"/>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="9"/>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="7"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
-      <c r="D229" s="3"/>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="9"/>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="7"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
-      <c r="D230" s="3"/>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="9"/>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="7"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
-      <c r="D231" s="3"/>
-    </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="9"/>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="7"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
-      <c r="D232" s="3"/>
-    </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="9"/>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="7"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
-      <c r="D233" s="3"/>
-    </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="9"/>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="7"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
-      <c r="D234" s="3"/>
-    </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="9"/>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="7"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
-      <c r="D235" s="3"/>
-    </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="9"/>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="7"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
-      <c r="D236" s="3"/>
-    </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="9"/>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="7"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
-      <c r="D237" s="3"/>
-    </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="9"/>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="7"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
-      <c r="D238" s="3"/>
-    </row>
-    <row r="239" spans="1:4">
-      <c r="A239" s="9"/>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="7"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
-      <c r="D239" s="3"/>
-    </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="9"/>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="7"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
-      <c r="D240" s="3"/>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="9"/>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="7"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
-      <c r="D241" s="3"/>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="9"/>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="7"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
-      <c r="D242" s="3"/>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="9"/>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="7"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
-      <c r="D243" s="3"/>
-    </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="9"/>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="7"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
-      <c r="D244" s="3"/>
-    </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="9"/>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="7"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
-      <c r="D245" s="3"/>
-    </row>
-    <row r="246" spans="1:4">
-      <c r="A246" s="9"/>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="7"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
-      <c r="D246" s="3"/>
-    </row>
-    <row r="247" spans="1:4">
-      <c r="A247" s="9"/>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="7"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
-      <c r="D247" s="3"/>
-    </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="9"/>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="7"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
-      <c r="D248" s="3"/>
-    </row>
-    <row r="249" spans="1:4">
-      <c r="A249" s="9"/>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="7"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
-      <c r="D249" s="3"/>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="9"/>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="7"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
-      <c r="D250" s="3"/>
-    </row>
-    <row r="251" spans="1:4">
-      <c r="A251" s="9"/>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="7"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
-      <c r="D251" s="3"/>
-    </row>
-    <row r="252" spans="1:4">
-      <c r="A252" s="9"/>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="7"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
-      <c r="D252" s="3"/>
-    </row>
-    <row r="253" spans="1:4">
-      <c r="A253" s="9"/>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="7"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
-      <c r="D253" s="3"/>
-    </row>
-    <row r="254" spans="1:4">
-      <c r="A254" s="9"/>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="7"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
-      <c r="D254" s="3"/>
-    </row>
-    <row r="255" spans="1:4">
-      <c r="A255" s="9"/>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="7"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
-      <c r="D255" s="3"/>
-    </row>
-    <row r="256" spans="1:4">
-      <c r="A256" s="9"/>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="7"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
-      <c r="D256" s="3"/>
-    </row>
-    <row r="257" spans="1:4">
-      <c r="A257" s="9"/>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="7"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
-      <c r="D257" s="3"/>
-    </row>
-    <row r="258" spans="1:4">
-      <c r="A258" s="9"/>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="7"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
-      <c r="D258" s="3"/>
-    </row>
-    <row r="259" spans="1:4">
-      <c r="A259" s="9"/>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="7"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
-      <c r="D259" s="3"/>
-    </row>
-    <row r="260" spans="1:4">
-      <c r="A260" s="9"/>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="7"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
-      <c r="D260" s="3"/>
-    </row>
-    <row r="261" spans="1:4">
-      <c r="A261" s="9"/>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="7"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
-      <c r="D261" s="3"/>
-    </row>
-    <row r="262" spans="1:4">
-      <c r="A262" s="9"/>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="7"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
-      <c r="D262" s="3"/>
-    </row>
-    <row r="263" spans="1:4">
-      <c r="A263" s="9"/>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="7"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
-      <c r="D263" s="3"/>
-    </row>
-    <row r="264" spans="1:4">
-      <c r="A264" s="9"/>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="7"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
-      <c r="D264" s="3"/>
-    </row>
-    <row r="265" spans="1:4">
-      <c r="A265" s="9"/>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="7"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
-      <c r="D265" s="3"/>
-    </row>
-    <row r="266" spans="1:4">
-      <c r="A266" s="9"/>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="7"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
-      <c r="D266" s="3"/>
-    </row>
-    <row r="267" spans="1:4">
-      <c r="A267" s="9"/>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="7"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
-      <c r="D267" s="3"/>
-    </row>
-    <row r="268" spans="1:4">
-      <c r="A268" s="9"/>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="7"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
-      <c r="D268" s="3"/>
-    </row>
-    <row r="269" spans="1:4">
-      <c r="A269" s="9"/>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="7"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
-      <c r="D269" s="3"/>
-    </row>
-    <row r="270" spans="1:4">
-      <c r="A270" s="9"/>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="7"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
-      <c r="D270" s="3"/>
-    </row>
-    <row r="271" spans="1:4">
-      <c r="A271" s="9"/>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="7"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
-      <c r="D271" s="3"/>
-    </row>
-    <row r="272" spans="1:4">
-      <c r="A272" s="9"/>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="7"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
-      <c r="D272" s="3"/>
-    </row>
-    <row r="273" spans="1:4">
-      <c r="A273" s="9"/>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="7"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
-      <c r="D273" s="3"/>
-    </row>
-    <row r="274" spans="1:4">
-      <c r="A274" s="9"/>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="7"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
-      <c r="D274" s="3"/>
-    </row>
-    <row r="275" spans="1:4">
-      <c r="A275" s="9"/>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="7"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
-      <c r="D275" s="3"/>
-    </row>
-    <row r="276" spans="1:4">
-      <c r="A276" s="9"/>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="7"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
-      <c r="D276" s="3"/>
-    </row>
-    <row r="277" spans="1:4">
-      <c r="A277" s="9"/>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="7"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
-      <c r="D277" s="3"/>
-    </row>
-    <row r="278" spans="1:4">
-      <c r="A278" s="9"/>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="7"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
-      <c r="D278" s="3"/>
-    </row>
-    <row r="279" spans="1:4">
-      <c r="A279" s="9"/>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="7"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
-      <c r="D279" s="3"/>
-    </row>
-    <row r="280" spans="1:4">
-      <c r="A280" s="9"/>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="7"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
-      <c r="D280" s="3"/>
-    </row>
-    <row r="281" spans="1:4">
-      <c r="A281" s="9"/>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="7"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
-      <c r="D281" s="3"/>
-    </row>
-    <row r="282" spans="1:4">
-      <c r="A282" s="9"/>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="7"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
-      <c r="D282" s="3"/>
-    </row>
-    <row r="283" spans="1:4">
-      <c r="A283" s="9"/>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="7"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
-      <c r="D283" s="3"/>
-    </row>
-    <row r="284" spans="1:4">
-      <c r="A284" s="9"/>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="7"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
-      <c r="D284" s="3"/>
-    </row>
-    <row r="285" spans="1:4">
-      <c r="A285" s="9"/>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="7"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
-      <c r="D285" s="3"/>
-    </row>
-    <row r="286" spans="1:4">
-      <c r="A286" s="9"/>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="7"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
-      <c r="D286" s="3"/>
-    </row>
-    <row r="287" spans="1:4">
-      <c r="A287" s="9"/>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="7"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
-      <c r="D287" s="3"/>
-    </row>
-    <row r="288" spans="1:4">
-      <c r="A288" s="9"/>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="7"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
-      <c r="D288" s="3"/>
-    </row>
-    <row r="289" spans="1:4">
-      <c r="A289" s="9"/>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="7"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
-      <c r="D289" s="3"/>
-    </row>
-    <row r="290" spans="1:4">
-      <c r="A290" s="9"/>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="7"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
-      <c r="D290" s="3"/>
-    </row>
-    <row r="291" spans="1:4">
-      <c r="A291" s="9"/>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="7"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
-      <c r="D291" s="3"/>
-    </row>
-    <row r="292" spans="1:4">
-      <c r="A292" s="9"/>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="7"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
-      <c r="D292" s="3"/>
-    </row>
-    <row r="293" spans="1:4">
-      <c r="A293" s="9"/>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="7"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
-      <c r="D293" s="3"/>
-    </row>
-    <row r="294" spans="1:4">
-      <c r="A294" s="9"/>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="7"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
-      <c r="D294" s="3"/>
-    </row>
-    <row r="295" spans="1:4">
-      <c r="A295" s="9"/>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="7"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
-      <c r="D295" s="3"/>
-    </row>
-    <row r="296" spans="1:4">
-      <c r="A296" s="9"/>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="7"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
-      <c r="D296" s="3"/>
-    </row>
-    <row r="297" spans="1:4">
-      <c r="A297" s="9"/>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="7"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
-      <c r="D297" s="3"/>
-    </row>
-    <row r="298" spans="1:4">
-      <c r="A298" s="9"/>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="7"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
-      <c r="D298" s="3"/>
-    </row>
-    <row r="299" spans="1:4">
-      <c r="A299" s="9"/>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="7"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
-      <c r="D299" s="3"/>
-    </row>
-    <row r="300" spans="1:4">
-      <c r="A300" s="9"/>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="7"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
-      <c r="D300" s="3"/>
-    </row>
-    <row r="301" spans="1:4">
-      <c r="A301" s="9"/>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="7"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
-      <c r="D301" s="3"/>
-    </row>
-    <row r="302" spans="1:4">
-      <c r="A302" s="9"/>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="7"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
-      <c r="D302" s="3"/>
-    </row>
-    <row r="303" spans="1:4">
-      <c r="A303" s="9"/>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="7"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
-      <c r="D303" s="3"/>
-    </row>
-    <row r="304" spans="1:4">
-      <c r="A304" s="9"/>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="7"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
-      <c r="D304" s="3"/>
-    </row>
-    <row r="305" spans="1:4">
-      <c r="A305" s="9"/>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="7"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
-      <c r="D305" s="3"/>
-    </row>
-    <row r="306" spans="1:4">
-      <c r="A306" s="9"/>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="7"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
-      <c r="D306" s="3"/>
-    </row>
-    <row r="307" spans="1:4">
-      <c r="A307" s="9"/>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="7"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
-      <c r="D307" s="3"/>
-    </row>
-    <row r="308" spans="1:4">
-      <c r="A308" s="9"/>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="7"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
-      <c r="D308" s="3"/>
-    </row>
-    <row r="309" spans="1:4">
-      <c r="A309" s="9"/>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="7"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
-      <c r="D309" s="3"/>
-    </row>
-    <row r="310" spans="1:4">
-      <c r="A310" s="9"/>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="7"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
-      <c r="D310" s="3"/>
-    </row>
-    <row r="311" spans="1:4">
-      <c r="A311" s="9"/>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="7"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
-      <c r="D311" s="3"/>
-    </row>
-    <row r="312" spans="1:4">
-      <c r="A312" s="9"/>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="7"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
-      <c r="D312" s="3"/>
-    </row>
-    <row r="313" spans="1:4">
-      <c r="A313" s="9"/>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="7"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
-      <c r="D313" s="3"/>
-    </row>
-    <row r="314" spans="1:4">
-      <c r="A314" s="9"/>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="7"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
-      <c r="D314" s="3"/>
-    </row>
-    <row r="315" spans="1:4">
-      <c r="A315" s="9"/>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="7"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
-      <c r="D315" s="3"/>
-    </row>
-    <row r="316" spans="1:4">
-      <c r="A316" s="9"/>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="7"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
-      <c r="D316" s="3"/>
-    </row>
-    <row r="317" spans="1:4">
-      <c r="A317" s="9"/>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="7"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
-      <c r="D317" s="3"/>
-    </row>
-    <row r="318" spans="1:4">
-      <c r="A318" s="9"/>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="7"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
-      <c r="D318" s="3"/>
-    </row>
-    <row r="319" spans="1:4">
-      <c r="A319" s="9"/>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="7"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
-      <c r="D319" s="3"/>
-    </row>
-    <row r="320" spans="1:4">
-      <c r="A320" s="9"/>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="7"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
-      <c r="D320" s="3"/>
-    </row>
-    <row r="321" spans="1:4">
-      <c r="A321" s="9"/>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="7"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
-      <c r="D321" s="3"/>
     </row>
     <row r="322" spans="1:1">
-      <c r="A322" s="9"/>
+      <c r="A322" s="7"/>
     </row>
     <row r="323" spans="1:1">
-      <c r="A323" s="9"/>
+      <c r="A323" s="7"/>
     </row>
   </sheetData>
   <sortState ref="A9:C53">
@@ -4115,27 +3712,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>

--- a/LF/TAS/Nigeria/ng_lf_tas_3_resultat_fts_202202.xlsx
+++ b/LF/TAS/Nigeria/ng_lf_tas_3_resultat_fts_202202.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -313,37 +313,37 @@
     <t>why_invalid</t>
   </si>
   <si>
-    <t>Absence.de.ligne.temoin/controle</t>
+    <t>Absence.of.control.line</t>
   </si>
   <si>
     <t>Absence of control line</t>
   </si>
   <si>
-    <t>Ligne.temoin.discontinue/partielle</t>
+    <t>Broken/partial.control.line</t>
   </si>
   <si>
     <t>Broken/partial control line</t>
   </si>
   <si>
-    <t>Difficulte.d’absorption.d’echantillon</t>
+    <t>Difficulty.of.absorbing.sample</t>
   </si>
   <si>
     <t>Difficulty of absorbing sample</t>
   </si>
   <si>
-    <t>Difficulte.de.migration.d’echantillon</t>
+    <t>Difficulty.of.migrating.sample</t>
   </si>
   <si>
     <t>Difficulty of migrating sample</t>
   </si>
   <si>
-    <t>Trace.de.sang.persiste.(sang.reste.sur.la.bandelette/a.obscurci.les.lignes)</t>
+    <t>Trace.of.blood.persists</t>
   </si>
   <si>
     <t>Trace of blood persists</t>
   </si>
   <si>
-    <t>Insuffisance.du.volume.de.sang.du.a.la.pipette</t>
+    <t>Insufficient.blood.volume.due.to.pipette</t>
   </si>
   <si>
     <t>Insufficient blood volume due to pipette</t>
@@ -1414,7 +1414,7 @@
   <sheetPr/>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1978,10 +1978,10 @@
   <sheetPr/>
   <dimension ref="A1:F323"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/LF/TAS/Nigeria/ng_lf_tas_3_resultat_fts_202202.xlsx
+++ b/LF/TAS/Nigeria/ng_lf_tas_3_resultat_fts_202202.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="123">
   <si>
     <t>type</t>
   </si>
@@ -111,10 +111,34 @@
     <t>The code must be a three-digit number</t>
   </si>
   <si>
+    <t>select_one id_list</t>
+  </si>
+  <si>
+    <t>d_IDMethod</t>
+  </si>
+  <si>
+    <t>How will the individual's unique ID be generated?</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>p_Barcode_id</t>
+  </si>
+  <si>
+    <t>Scan barcode now</t>
+  </si>
+  <si>
+    <t>${d_IDMethod} = 'Scanner'</t>
+  </si>
+  <si>
     <t>d_code_id</t>
   </si>
   <si>
     <t>Enter unique ID from the diagnostic test (must be entered as 15-123-1 upper case only with dashes)</t>
+  </si>
+  <si>
+    <t>${d_IDMethod} = 'Sequential'</t>
   </si>
   <si>
     <t>d_lotnumber1</t>
@@ -292,10 +316,7 @@
     <t>Scanner</t>
   </si>
   <si>
-    <t>Generation automatique</t>
-  </si>
-  <si>
-    <t>Automatic ID generation</t>
+    <t>Sequential</t>
   </si>
   <si>
     <t>results_list</t>
@@ -367,10 +388,10 @@
     <t xml:space="preserve">allow_choice_duplicates </t>
   </si>
   <si>
-    <t>(Fev 2022) Nigeria - 3. TAS1 LF FTS Results Form</t>
-  </si>
-  <si>
-    <t>ng_lf_tas_3_resultat_fts_202202</t>
+    <t>(Fev 2022) Nigeria - 3. TAS1 LF FTS Results Form V2</t>
+  </si>
+  <si>
+    <t>ng_lf_tas_3_resultat_fts_202202_2</t>
   </si>
   <si>
     <t>English</t>
@@ -381,12 +402,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -406,6 +427,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -436,14 +464,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -451,23 +471,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -483,7 +488,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,7 +504,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,6 +526,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -512,9 +541,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,6 +562,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -542,11 +578,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -578,25 +622,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,7 +664,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,7 +682,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,7 +700,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,73 +772,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,25 +796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,24 +825,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -810,6 +836,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,6 +881,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -861,11 +907,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,154 +917,160 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1042,6 +1092,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1061,6 +1114,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1077,20 +1133,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
@@ -1133,11 +1189,13 @@
     <cellStyle name="Title" xfId="39" builtinId="15"/>
     <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Heading 2" xfId="42" builtinId="17"/>
-    <cellStyle name="Comma" xfId="43" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="44" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="45" builtinId="40"/>
-    <cellStyle name="Percent" xfId="46" builtinId="5"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -1412,26 +1470,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="$A8:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="23.5037037037037" customWidth="1"/>
     <col min="2" max="2" width="19.8740740740741" customWidth="1"/>
-    <col min="3" max="3" width="42.6222222222222" style="9" customWidth="1"/>
+    <col min="3" max="3" width="42.6222222222222" style="10" customWidth="1"/>
     <col min="4" max="4" width="41.2518518518519" style="6" customWidth="1"/>
     <col min="5" max="5" width="12.6222222222222" customWidth="1"/>
     <col min="6" max="6" width="16.8740740740741" customWidth="1"/>
     <col min="7" max="7" width="29.5037037037037" style="6" customWidth="1"/>
-    <col min="8" max="8" width="49.3777777777778" style="10" customWidth="1"/>
+    <col min="8" max="8" width="49.3777777777778" style="11" customWidth="1"/>
     <col min="9" max="9" width="12.6222222222222" customWidth="1"/>
     <col min="10" max="10" width="9.74814814814815" customWidth="1"/>
     <col min="11" max="11" width="35.3777777777778" customWidth="1"/>
@@ -1440,530 +1498,580 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="18" spans="1:13">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" ht="42.75" spans="1:13">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="13"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="14"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:13">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="13"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:13">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="13"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="14"/>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:13">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="13"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="14"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="28.5" spans="1:13">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21" t="s">
+      <c r="H6" s="15"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="13"/>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="28.5" spans="1:13">
-      <c r="A7" s="13" t="s">
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" s="9" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
+      <c r="A7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" s="9" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
+      <c r="A8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="21" t="s">
+      <c r="B9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:13">
-      <c r="A8" s="13" t="s">
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:13">
+      <c r="A10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="21" t="s">
+      <c r="B10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="28.5" spans="1:13">
-      <c r="A9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="21" t="s">
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:13">
-      <c r="A10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="21" t="s">
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:13">
+      <c r="A12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:13">
-      <c r="A11" s="13" t="s">
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:13">
+      <c r="A13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:13">
+      <c r="A14" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="57" spans="1:13">
+      <c r="A15" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:13">
+      <c r="A16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="21" t="s">
+      <c r="B17" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="20"/>
+      <c r="J17" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:13">
-      <c r="A12" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="16" t="s">
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="21" t="s">
+      <c r="B18" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="20"/>
+      <c r="J18" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" s="3" customFormat="1" ht="57" spans="1:13">
-      <c r="A13" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="19" t="s">
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:13">
-      <c r="A14" s="13" t="s">
+      <c r="B19" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="20"/>
+      <c r="J19" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+    </row>
+    <row r="21" ht="56.25" customHeight="1" spans="1:9">
+      <c r="A21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" ht="28.5" spans="1:8">
+      <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-    </row>
-    <row r="19" ht="56.25" customHeight="1" spans="1:9">
-      <c r="A19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" ht="28.5" spans="1:8">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="B23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>78</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1978,10 +2086,10 @@
   <sheetPr/>
   <dimension ref="A1:F323"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9:B14"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1993,7 +2101,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2002,167 +2110,167 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>87</v>
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>89</v>
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -3712,27 +3820,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
